--- a/배점표.xlsx
+++ b/배점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace-test\maxsports-wonju\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace-test\maxwonju.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDB77F3-C02A-49A0-A43B-F7A2638BFBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303ECBDE-B483-4733-84D0-2B21DDB5842E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2475" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="남" sheetId="4" r:id="rId1"/>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1742,7 +1742,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="3">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C33" s="3">
         <v>13.5</v>
@@ -2414,8 +2414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5572,6 +5572,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
@@ -5581,15 +5590,6 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/배점표.xlsx
+++ b/배점표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace-test\maxwonju.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace-test\maxsports-wonju\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303ECBDE-B483-4733-84D0-2B21DDB5842E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054BC115-2AE7-4269-A89C-0BE3E5A13F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,7 +668,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2415,7 +2415,7 @@
   <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/배점표.xlsx
+++ b/배점표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace-test\maxsports-wonju\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace-test\maxwonju.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054BC115-2AE7-4269-A89C-0BE3E5A13F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB132F13-3732-42C0-91A5-CD93E6A50126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1742,7 +1742,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="3">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C33" s="3">
         <v>13.5</v>
@@ -5572,6 +5572,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
@@ -5581,15 +5590,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
